--- a/output/BarleyPVEsummary.xlsx
+++ b/output/BarleyPVEsummary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasuhirosato/Documents/GitHub/caige_barley/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF2923A-AC27-5D40-A4A0-0137417F91AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6159344B-8B4E-3241-8DD8-68FDF62BB2BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2600" yWindow="760" windowWidth="27640" windowHeight="16640" activeTab="5" xr2:uid="{23D60E57-E09F-D44C-BD48-044020F828AC}"/>
+    <workbookView xWindow="2600" yWindow="760" windowWidth="27640" windowHeight="16640" xr2:uid="{23D60E57-E09F-D44C-BD48-044020F828AC}"/>
   </bookViews>
   <sheets>
     <sheet name="NFNB_MAF1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="23">
   <si>
     <t>scale</t>
   </si>
@@ -502,8 +502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3A3C98-85A1-744D-BEC3-623D5D412386}">
   <dimension ref="B2:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -522,6 +522,9 @@
       <c r="D2" t="s">
         <v>2</v>
       </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
       <c r="F2" s="7" t="s">
         <v>10</v>
       </c>
@@ -548,6 +551,10 @@
       <c r="D3">
         <v>0</v>
       </c>
+      <c r="E3">
+        <f>SUM(D3,C3)</f>
+        <v>0.36573965089833099</v>
+      </c>
       <c r="F3" s="5">
         <v>0</v>
       </c>
@@ -555,7 +562,7 @@
         <v>0.36573965089833099</v>
       </c>
       <c r="H3" s="4">
-        <f>F3-$F$3</f>
+        <f>E3-$G$3</f>
         <v>0</v>
       </c>
       <c r="I3" s="4">
@@ -575,6 +582,10 @@
       <c r="D4">
         <v>0.32418080870578703</v>
       </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E10" si="0">SUM(D4,C4)</f>
+        <v>0.51076672880477902</v>
+      </c>
       <c r="F4" s="5">
         <v>1</v>
       </c>
@@ -582,8 +593,8 @@
         <v>0.36573965089833099</v>
       </c>
       <c r="H4" s="4">
-        <f t="shared" ref="H4:H10" si="0">F4-$F$3</f>
-        <v>1</v>
+        <f t="shared" ref="H4:H10" si="1">E4-$G$3</f>
+        <v>0.14502707790644803</v>
       </c>
       <c r="I4" s="4">
         <v>5.6835414999999996</v>
@@ -602,6 +613,10 @@
       <c r="D5">
         <v>0.33355711322916498</v>
       </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>0.50874507171824801</v>
+      </c>
       <c r="F5" s="5">
         <v>1.4242135623731</v>
       </c>
@@ -609,8 +624,8 @@
         <v>0.36573965089833099</v>
       </c>
       <c r="H5" s="4">
-        <f t="shared" si="0"/>
-        <v>1.4242135623731</v>
+        <f t="shared" si="1"/>
+        <v>0.14300542081991702</v>
       </c>
       <c r="I5" s="4">
         <v>4.0288817999999997</v>
@@ -629,6 +644,10 @@
       <c r="D6">
         <v>0.46246455008281401</v>
       </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0.55339019962544977</v>
+      </c>
       <c r="F6" s="5">
         <v>2</v>
       </c>
@@ -636,8 +655,8 @@
         <v>0.36573965089833099</v>
       </c>
       <c r="H6" s="4">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>0.18765054872711878</v>
       </c>
       <c r="I6" s="4">
         <v>3.7407572</v>
@@ -656,6 +675,10 @@
       <c r="D7">
         <v>0.50990149469297796</v>
       </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0.55398892709034953</v>
+      </c>
       <c r="F7" s="5">
         <v>2.8384271247461901</v>
       </c>
@@ -663,8 +686,8 @@
         <v>0.36573965089833099</v>
       </c>
       <c r="H7" s="4">
-        <f t="shared" si="0"/>
-        <v>2.8384271247461901</v>
+        <f t="shared" si="1"/>
+        <v>0.18824927619201853</v>
       </c>
       <c r="I7" s="4">
         <v>3.0640798</v>
@@ -683,6 +706,10 @@
       <c r="D8">
         <v>0.55730899310808102</v>
       </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0.55730899310808102</v>
+      </c>
       <c r="F8" s="5">
         <v>3</v>
       </c>
@@ -690,8 +717,8 @@
         <v>0.36573965089833099</v>
       </c>
       <c r="H8" s="4">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>0.19156934220975003</v>
       </c>
       <c r="I8" s="4">
         <v>2.6608482000000002</v>
@@ -710,6 +737,10 @@
       <c r="D9">
         <v>0.55889615869237497</v>
       </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0.55889615869237497</v>
+      </c>
       <c r="F9" s="5">
         <v>4</v>
       </c>
@@ -717,8 +748,8 @@
         <v>0.36573965089833099</v>
       </c>
       <c r="H9" s="4">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>0.19315650779404397</v>
       </c>
       <c r="I9" s="4">
         <v>2.9789555000000001</v>
@@ -737,6 +768,10 @@
       <c r="D10">
         <v>0.322023789348926</v>
       </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>0.46871459461148002</v>
+      </c>
       <c r="F10" s="5">
         <v>4.2526406871192801</v>
       </c>
@@ -744,8 +779,8 @@
         <v>0.36573965089833099</v>
       </c>
       <c r="H10" s="4">
-        <f t="shared" si="0"/>
-        <v>4.2526406871192801</v>
+        <f t="shared" si="1"/>
+        <v>0.10297494371314903</v>
       </c>
       <c r="I10" s="4">
         <v>0.55216810000000005</v>
@@ -1966,7 +2001,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D1F0FD1-D7D4-2D43-9349-6301CED29369}">
   <dimension ref="B2:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>

--- a/output/BarleyPVEsummary.xlsx
+++ b/output/BarleyPVEsummary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasuhirosato/Documents/GitHub/caige_barley/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6159344B-8B4E-3241-8DD8-68FDF62BB2BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9018A9DC-D399-074D-9F0F-78581280F26A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2600" yWindow="760" windowWidth="27640" windowHeight="16640" xr2:uid="{23D60E57-E09F-D44C-BD48-044020F828AC}"/>
+    <workbookView xWindow="0" yWindow="1320" windowWidth="27640" windowHeight="16640" activeTab="6" xr2:uid="{23D60E57-E09F-D44C-BD48-044020F828AC}"/>
   </bookViews>
   <sheets>
     <sheet name="NFNB_MAF1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="NFNB_MAF5" sheetId="4" r:id="rId4"/>
     <sheet name="SFNB_MAF5" sheetId="5" r:id="rId5"/>
     <sheet name="Scald_MAF5" sheetId="6" r:id="rId6"/>
+    <sheet name="AveNoNeighbor" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="41">
   <si>
     <t>scale</t>
   </si>
@@ -67,12 +68,6 @@
     <t>2.24943856124238e-07</t>
   </si>
   <si>
-    <t>PVE(neighbor)</t>
-  </si>
-  <si>
-    <t>PVE(self)</t>
-  </si>
-  <si>
     <t>Distance</t>
   </si>
   <si>
@@ -110,6 +105,66 @@
   </si>
   <si>
     <t>1.14150860436951e-07</t>
+  </si>
+  <si>
+    <t>2.3148190410015e-07</t>
+  </si>
+  <si>
+    <t>2.30337080465688e-07</t>
+  </si>
+  <si>
+    <t>PVEneighbor</t>
+  </si>
+  <si>
+    <t>6.16222640060864e-07</t>
+  </si>
+  <si>
+    <t>6.29533461739471e-07</t>
+  </si>
+  <si>
+    <t>1.06505218435328e-07</t>
+  </si>
+  <si>
+    <t>1.03606494365364e-07</t>
+  </si>
+  <si>
+    <t>9.58193719679422e-08</t>
+  </si>
+  <si>
+    <t>2.54879764311516e-07</t>
+  </si>
+  <si>
+    <t>2.52679667682872e-07</t>
+  </si>
+  <si>
+    <t>6.9130038165612e-07</t>
+  </si>
+  <si>
+    <t>1.66987695563099e-07</t>
+  </si>
+  <si>
+    <t>8.64709349837321e-05</t>
+  </si>
+  <si>
+    <t>1.24321362109706e-07</t>
+  </si>
+  <si>
+    <t>1.20783470029883e-07</t>
+  </si>
+  <si>
+    <t>1.12151168671796e-07</t>
+  </si>
+  <si>
+    <t>Scald</t>
+  </si>
+  <si>
+    <t>Net form net blotch</t>
+  </si>
+  <si>
+    <t>Spot form net blotch</t>
+  </si>
+  <si>
+    <t>theoretical max.</t>
   </si>
 </sst>
 </file>
@@ -117,9 +172,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="0.00000"/>
-    <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0E+00"/>
+    <numFmt numFmtId="166" formatCode="0.0.E+00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -161,11 +216,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -500,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3A3C98-85A1-744D-BEC3-623D5D412386}">
-  <dimension ref="B2:J10"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:J10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -512,160 +569,222 @@
     <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="7" t="s">
+      <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="L1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0.36573965089833099</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>2.5165507963210199E-2</v>
+      </c>
+      <c r="F2">
+        <v>0.36573965089833099</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.36573965089833099</v>
+      </c>
+      <c r="J2" s="2">
+        <f t="shared" ref="J2:J13" si="0">F2-I2</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>5.0124610000000001</v>
+      </c>
+      <c r="L2" s="2">
+        <v>2.5165507963210199E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
+        <v>0.186585920098992</v>
+      </c>
+      <c r="D3">
+        <v>0.32418080870578703</v>
+      </c>
+      <c r="E3">
+        <v>1.71247680669432E-2</v>
+      </c>
+      <c r="F3">
+        <v>0.51076672880477902</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2">
         <v>0.36573965089833099</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <f>SUM(D3,C3)</f>
+      <c r="J3" s="2">
+        <f t="shared" si="0"/>
+        <v>0.14502707790644803</v>
+      </c>
+      <c r="K3" s="2">
+        <v>5.6835414999999996</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1.71247680669432E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1.4242135623731</v>
+      </c>
+      <c r="C4">
+        <v>0.175187958489083</v>
+      </c>
+      <c r="D4">
+        <v>0.33355711322916498</v>
+      </c>
+      <c r="E4">
+        <v>4.4727576427872201E-2</v>
+      </c>
+      <c r="F4">
+        <v>0.50874507171824801</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1.4242135623731</v>
+      </c>
+      <c r="I4" s="2">
         <v>0.36573965089833099</v>
       </c>
-      <c r="F3" s="5">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4">
+      <c r="J4" s="2">
+        <f t="shared" si="0"/>
+        <v>0.14300542081991702</v>
+      </c>
+      <c r="K4" s="2">
+        <v>4.0288817999999997</v>
+      </c>
+      <c r="L4" s="2">
+        <v>4.4727576427872201E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>9.0925649542635795E-2</v>
+      </c>
+      <c r="D5">
+        <v>0.46246455008281401</v>
+      </c>
+      <c r="E5">
+        <v>5.3100376687386798E-2</v>
+      </c>
+      <c r="F5">
+        <v>0.553390199625449</v>
+      </c>
+      <c r="H5" s="2">
+        <v>2</v>
+      </c>
+      <c r="I5" s="2">
         <v>0.36573965089833099</v>
       </c>
-      <c r="H3" s="4">
-        <f>E3-$G$3</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="4">
-        <v>5.0124610000000001</v>
-      </c>
-      <c r="J3" s="4">
-        <v>2.5165507963210199E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>0.186585920098992</v>
-      </c>
-      <c r="D4">
-        <v>0.32418080870578703</v>
-      </c>
-      <c r="E4">
-        <f t="shared" ref="E4:E10" si="0">SUM(D4,C4)</f>
-        <v>0.51076672880477902</v>
-      </c>
-      <c r="F4" s="5">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4">
+      <c r="J5" s="2">
+        <f t="shared" si="0"/>
+        <v>0.18765054872711801</v>
+      </c>
+      <c r="K5" s="2">
+        <v>3.7407572</v>
+      </c>
+      <c r="L5" s="2">
+        <v>5.3100376687386798E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2.24606797749979</v>
+      </c>
+      <c r="C6">
+        <v>6.1152101342037801E-2</v>
+      </c>
+      <c r="D6">
+        <v>0.48597305394180701</v>
+      </c>
+      <c r="E6">
+        <v>7.1126251703861901E-2</v>
+      </c>
+      <c r="F6">
+        <v>0.54712515528384498</v>
+      </c>
+      <c r="H6" s="2">
+        <v>2.24606797749979</v>
+      </c>
+      <c r="I6" s="2">
         <v>0.36573965089833099</v>
       </c>
-      <c r="H4" s="4">
-        <f t="shared" ref="H4:H10" si="1">E4-$G$3</f>
-        <v>0.14502707790644803</v>
-      </c>
-      <c r="I4" s="4">
-        <v>5.6835414999999996</v>
-      </c>
-      <c r="J4" s="4">
-        <v>1.71247680669432E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B5">
-        <v>1.4242135623731</v>
-      </c>
-      <c r="C5">
-        <v>0.175187958489083</v>
-      </c>
-      <c r="D5">
-        <v>0.33355711322916498</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>0.50874507171824801</v>
-      </c>
-      <c r="F5" s="5">
-        <v>1.4242135623731</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0.36573965089833099</v>
-      </c>
-      <c r="H5" s="4">
-        <f t="shared" si="1"/>
-        <v>0.14300542081991702</v>
-      </c>
-      <c r="I5" s="4">
-        <v>4.0288817999999997</v>
-      </c>
-      <c r="J5" s="4">
-        <v>4.4727576427872201E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>9.0925649542635795E-2</v>
-      </c>
-      <c r="D6">
-        <v>0.46246455008281401</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>0.55339019962544977</v>
-      </c>
-      <c r="F6" s="5">
-        <v>2</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0.36573965089833099</v>
-      </c>
-      <c r="H6" s="4">
-        <f t="shared" si="1"/>
-        <v>0.18765054872711878</v>
-      </c>
-      <c r="I6" s="4">
-        <v>3.7407572</v>
-      </c>
-      <c r="J6" s="4">
-        <v>5.3100376687386798E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J6" s="2">
+        <f t="shared" si="0"/>
+        <v>0.18138550438551398</v>
+      </c>
+      <c r="K6" s="2">
+        <v>3.2568358000000002</v>
+      </c>
+      <c r="L6" s="2">
+        <v>7.1126251703861901E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
       <c r="B7">
         <v>2.8384271247461901</v>
       </c>
@@ -676,27 +795,32 @@
         <v>0.50990149469297796</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
-        <v>0.55398892709034953</v>
-      </c>
-      <c r="F7" s="5">
+        <v>8.0040467338328397E-2</v>
+      </c>
+      <c r="F7">
+        <v>0.55398892709034997</v>
+      </c>
+      <c r="H7" s="2">
         <v>2.8384271247461901</v>
       </c>
-      <c r="G7" s="4">
+      <c r="I7" s="2">
         <v>0.36573965089833099</v>
       </c>
-      <c r="H7" s="4">
-        <f t="shared" si="1"/>
-        <v>0.18824927619201853</v>
-      </c>
-      <c r="I7" s="4">
+      <c r="J7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.18824927619201898</v>
+      </c>
+      <c r="K7" s="2">
         <v>3.0640798</v>
       </c>
-      <c r="J7" s="4">
+      <c r="L7" s="2">
         <v>8.0040467338328397E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
       <c r="B8">
         <v>3</v>
       </c>
@@ -707,85 +831,205 @@
         <v>0.55730899310808102</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
-        <v>0.55730899310808102</v>
-      </c>
-      <c r="F8" s="5">
+        <v>0.102845874681633</v>
+      </c>
+      <c r="F8">
+        <v>0.55730922080574796</v>
+      </c>
+      <c r="H8" s="2">
         <v>3</v>
       </c>
-      <c r="G8" s="4">
+      <c r="I8" s="2">
         <v>0.36573965089833099</v>
       </c>
-      <c r="H8" s="4">
-        <f t="shared" si="1"/>
-        <v>0.19156934220975003</v>
-      </c>
-      <c r="I8" s="4">
+      <c r="J8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.19156956990741697</v>
+      </c>
+      <c r="K8" s="2">
         <v>2.6608482000000002</v>
       </c>
-      <c r="J8" s="4">
+      <c r="L8" s="2">
         <v>0.102845874681633</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
       <c r="B9">
+        <v>3.1722776601683802</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9">
+        <v>0.54488812393952502</v>
+      </c>
+      <c r="E9">
+        <v>0.101322928705884</v>
+      </c>
+      <c r="F9">
+        <v>0.54488835542142899</v>
+      </c>
+      <c r="H9" s="2">
+        <v>3.1722776601683802</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.36573965089833099</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.179148704523098</v>
+      </c>
+      <c r="K9" s="2">
+        <v>2.6845959000000001</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0.101322928705884</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>3.6155512754639898</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10">
+        <v>0.54618250884719699</v>
+      </c>
+      <c r="E10">
+        <v>0.117252673054314</v>
+      </c>
+      <c r="F10">
+        <v>0.54618273918427696</v>
+      </c>
+      <c r="H10" s="2">
+        <v>3.6155512754639898</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.36573965089833099</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.18044308828594596</v>
+      </c>
+      <c r="K10" s="2">
+        <v>2.4536402000000002</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0.117252673054314</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
         <v>4</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D9">
+      <c r="D11">
         <v>0.55889615869237497</v>
       </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>0.55889615869237497</v>
-      </c>
-      <c r="F9" s="5">
+      <c r="E11">
+        <v>8.4353691760697402E-2</v>
+      </c>
+      <c r="F11">
+        <v>0.55889638363623095</v>
+      </c>
+      <c r="H11" s="2">
         <v>4</v>
       </c>
-      <c r="G9" s="4">
+      <c r="I11" s="2">
         <v>0.36573965089833099</v>
       </c>
-      <c r="H9" s="4">
-        <f t="shared" si="1"/>
-        <v>0.19315650779404397</v>
-      </c>
-      <c r="I9" s="4">
+      <c r="J11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.19315673273789996</v>
+      </c>
+      <c r="K11" s="2">
         <v>2.9789555000000001</v>
       </c>
-      <c r="J9" s="4">
+      <c r="L11" s="2">
         <v>8.4353691760697402E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B10">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>4.1331056256176604</v>
+      </c>
+      <c r="C12">
+        <v>4.8700084787726902E-2</v>
+      </c>
+      <c r="D12">
+        <v>0.46569682116699002</v>
+      </c>
+      <c r="E12">
+        <v>0.25509750175187601</v>
+      </c>
+      <c r="F12">
+        <v>0.51439690595471699</v>
+      </c>
+      <c r="H12" s="2">
+        <v>4.1331056256176604</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0.36573965089833099</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.148657255056386</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1.2951693</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0.25509750175187601</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
         <v>4.2526406871192801</v>
       </c>
-      <c r="C10">
+      <c r="C13">
         <v>0.14669080526255401</v>
       </c>
-      <c r="D10">
+      <c r="D13">
         <v>0.322023789348926</v>
       </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
+      <c r="E13">
+        <v>0.45743316233443798</v>
+      </c>
+      <c r="F13">
         <v>0.46871459461148002</v>
       </c>
-      <c r="F10" s="5">
+      <c r="H13" s="2">
         <v>4.2526406871192801</v>
       </c>
-      <c r="G10" s="4">
+      <c r="I13" s="2">
         <v>0.36573965089833099</v>
       </c>
-      <c r="H10" s="4">
-        <f t="shared" si="1"/>
+      <c r="J13" s="2">
+        <f t="shared" si="0"/>
         <v>0.10297494371314903</v>
       </c>
-      <c r="I10" s="4">
+      <c r="K13" s="2">
         <v>0.55216810000000005</v>
       </c>
-      <c r="J10" s="4">
+      <c r="L13" s="2">
         <v>0.45743316233443798</v>
       </c>
     </row>
@@ -796,19 +1040,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E55F75B2-C9C9-ED4E-B0DA-1164A06899A9}">
-  <dimension ref="B2:K10"/>
+  <dimension ref="A2:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -819,25 +1065,31 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="7" t="s">
+      <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="I2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="L2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
       <c r="B3">
         <v>0</v>
       </c>
@@ -848,26 +1100,32 @@
         <v>0</v>
       </c>
       <c r="E3">
+        <v>8.7887204157171703E-2</v>
+      </c>
+      <c r="F3">
         <v>0.22789519547609599</v>
       </c>
-      <c r="G3" s="5">
+      <c r="H3" s="2">
         <v>0</v>
       </c>
-      <c r="H3" s="4">
+      <c r="I3" s="2">
         <v>0.22789519547609599</v>
       </c>
-      <c r="I3" s="4">
-        <f>E3-$E$3</f>
+      <c r="J3" s="2">
+        <f>F3-I3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="4">
+      <c r="K3" s="2">
         <v>2.9126528</v>
       </c>
-      <c r="K3" s="4">
+      <c r="L3" s="2">
         <v>8.7887204157171703E-2</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
       <c r="B4">
         <v>1</v>
       </c>
@@ -878,26 +1136,32 @@
         <v>0.241807274649917</v>
       </c>
       <c r="E4">
+        <v>9.8215514060509698E-2</v>
+      </c>
+      <c r="F4">
         <v>0.37363419172138501</v>
       </c>
-      <c r="G4" s="5">
+      <c r="H4" s="2">
         <v>1</v>
       </c>
-      <c r="H4" s="4">
+      <c r="I4" s="2">
         <v>0.22789519547609599</v>
       </c>
-      <c r="I4" s="4">
-        <f t="shared" ref="I4:I10" si="0">E4-$E$3</f>
+      <c r="J4" s="2">
+        <f t="shared" ref="J4:J14" si="0">F4-I4</f>
         <v>0.14573899624528902</v>
       </c>
-      <c r="J4" s="4">
+      <c r="K4" s="2">
         <v>2.7342840000000002</v>
       </c>
-      <c r="K4" s="4">
+      <c r="L4" s="2">
         <v>9.8215514060509698E-2</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
       <c r="B5">
         <v>1.4242135623731</v>
       </c>
@@ -908,172 +1172,349 @@
         <v>0.346604523471151</v>
       </c>
       <c r="E5">
+        <v>3.6661468673362702E-2</v>
+      </c>
+      <c r="F5">
         <v>0.42713506896482101</v>
       </c>
-      <c r="G5" s="5">
+      <c r="H5" s="2">
         <v>1.4242135623731</v>
       </c>
-      <c r="H5" s="4">
+      <c r="I5" s="2">
         <v>0.22789519547609599</v>
       </c>
-      <c r="I5" s="4">
+      <c r="J5" s="2">
         <f t="shared" si="0"/>
         <v>0.19923987348872502</v>
       </c>
-      <c r="J5" s="4">
+      <c r="K5" s="2">
         <v>4.3660692000000001</v>
       </c>
-      <c r="K5" s="4">
+      <c r="L5" s="2">
         <v>3.6661468673362702E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D6">
         <v>0.53124510498240995</v>
       </c>
       <c r="E6">
+        <v>8.4404515677187E-3</v>
+      </c>
+      <c r="F6">
         <v>0.53124562383600804</v>
       </c>
-      <c r="G6" s="5">
+      <c r="H6" s="2">
         <v>2</v>
       </c>
-      <c r="H6" s="4">
+      <c r="I6" s="2">
         <v>0.22789519547609599</v>
       </c>
-      <c r="I6" s="4">
+      <c r="J6" s="2">
         <f t="shared" si="0"/>
         <v>0.30335042835991205</v>
       </c>
-      <c r="J6" s="4">
+      <c r="K6" s="2">
         <v>6.9375527000000003</v>
       </c>
-      <c r="K6" s="4">
+      <c r="L6" s="2">
         <v>8.4404515677187E-3</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
       <c r="B7">
+        <v>2.24606797749979</v>
+      </c>
+      <c r="C7">
+        <v>3.2588736710417003E-2</v>
+      </c>
+      <c r="D7">
+        <v>0.41543406964913399</v>
+      </c>
+      <c r="E7">
+        <v>9.8565446454432701E-2</v>
+      </c>
+      <c r="F7">
+        <v>0.448022806359551</v>
+      </c>
+      <c r="H7" s="2">
+        <v>2.24606797749979</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.22789519547609599</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.220127610883455</v>
+      </c>
+      <c r="K7" s="2">
+        <v>2.7286033000000001</v>
+      </c>
+      <c r="L7" s="2">
+        <v>9.8565446454432701E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
         <v>2.8384271247461901</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>6.3005984776357297E-3</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>0.41920099631918101</v>
       </c>
-      <c r="E7">
+      <c r="E8">
+        <v>0.12899905590374</v>
+      </c>
+      <c r="F8">
         <v>0.42550159479681698</v>
       </c>
-      <c r="G7" s="5">
+      <c r="H8" s="2">
         <v>2.8384271247461901</v>
       </c>
-      <c r="H7" s="4">
+      <c r="I8" s="2">
         <v>0.22789519547609599</v>
       </c>
-      <c r="I7" s="4">
+      <c r="J8" s="2">
         <f t="shared" si="0"/>
         <v>0.19760639932072099</v>
       </c>
-      <c r="J7" s="4">
+      <c r="K8" s="2">
         <v>2.3045087999999998</v>
       </c>
-      <c r="K7" s="4">
+      <c r="L8" s="2">
         <v>0.12899905590374</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B8">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
         <v>3</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>0.44996313964879098</v>
+      </c>
+      <c r="E9">
+        <v>0.153909032774142</v>
+      </c>
+      <c r="F9">
+        <v>0.44996370966923599</v>
+      </c>
+      <c r="H9" s="2">
+        <v>3</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.22789519547609599</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.22206851419314</v>
+      </c>
+      <c r="K9" s="2">
+        <v>2.033074</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0.153909032774142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>3.1722776601683802</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10">
+        <v>0.39023464053752699</v>
+      </c>
+      <c r="E10">
+        <v>0.28596234885439598</v>
+      </c>
+      <c r="F10">
+        <v>0.39023525676016702</v>
+      </c>
+      <c r="H10" s="2">
+        <v>3.1722776601683802</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.22789519547609599</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.16234006128407102</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1.1385338</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0.28596234885439598</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>3.6155512754639898</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11">
+        <v>0.37277429690812097</v>
+      </c>
+      <c r="E11">
+        <v>0.30535838211484401</v>
+      </c>
+      <c r="F11">
+        <v>0.372774926441583</v>
+      </c>
+      <c r="H11" s="2">
+        <v>3.6155512754639898</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0.22789519547609599</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.14487973096548701</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1.0506458999999999</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0.30535838211484401</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>6.8169999785901497E-3</v>
+      </c>
+      <c r="D12">
+        <v>0.36181813000125301</v>
+      </c>
+      <c r="E12">
+        <v>0.42932312315242099</v>
+      </c>
+      <c r="F12">
+        <v>0.36863512997984299</v>
+      </c>
+      <c r="H12" s="2">
+        <v>4</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0.22789519547609599</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.140739934503747</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0.62465389999999998</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0.42932312315242099</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>4.1331056256176604</v>
+      </c>
+      <c r="C13">
+        <v>1.59308304006733E-2</v>
+      </c>
+      <c r="D13">
+        <v>0.34759130344677902</v>
+      </c>
+      <c r="E13">
+        <v>0.47512343368833798</v>
+      </c>
+      <c r="F13">
+        <v>0.36352213384745302</v>
+      </c>
+      <c r="H13" s="2">
+        <v>4.1331056256176604</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0.22789519547609599</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" si="0"/>
+        <v>0.13562693837135703</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0.51003560000000003</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0.47512343368833798</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>12</v>
       </c>
-      <c r="D8">
-        <v>0.44996313964879098</v>
-      </c>
-      <c r="E8">
-        <v>0.44996370966923599</v>
-      </c>
-      <c r="G8" s="5">
-        <v>3</v>
-      </c>
-      <c r="H8" s="4">
+      <c r="B14">
+        <v>4.2526406871192801</v>
+      </c>
+      <c r="C14">
+        <v>1.46785388482227E-2</v>
+      </c>
+      <c r="D14">
+        <v>0.34015662724131401</v>
+      </c>
+      <c r="E14">
+        <v>0.521742787124719</v>
+      </c>
+      <c r="F14">
+        <v>0.35483516608953702</v>
+      </c>
+      <c r="H14" s="2">
+        <v>4.2526406871192801</v>
+      </c>
+      <c r="I14" s="2">
         <v>0.22789519547609599</v>
       </c>
-      <c r="I8" s="4">
-        <f t="shared" si="0"/>
-        <v>0.22206851419314</v>
-      </c>
-      <c r="J8" s="4">
-        <v>2.033074</v>
-      </c>
-      <c r="K8" s="4">
-        <v>0.153909032774142</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9">
-        <v>6.8169999785901497E-3</v>
-      </c>
-      <c r="D9">
-        <v>0.36181813000125301</v>
-      </c>
-      <c r="E9">
-        <v>0.36863512997984299</v>
-      </c>
-      <c r="G9" s="5">
-        <v>4</v>
-      </c>
-      <c r="H9" s="4">
-        <v>0.22789519547609599</v>
-      </c>
-      <c r="I9" s="4">
-        <f t="shared" si="0"/>
-        <v>0.140739934503747</v>
-      </c>
-      <c r="J9" s="4">
-        <v>0.62465389999999998</v>
-      </c>
-      <c r="K9" s="4">
-        <v>0.42932312315242099</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B10">
-        <v>4.2526406871192801</v>
-      </c>
-      <c r="C10">
-        <v>1.46785388482227E-2</v>
-      </c>
-      <c r="D10">
-        <v>0.34015662724131401</v>
-      </c>
-      <c r="E10">
-        <v>0.35483516608953702</v>
-      </c>
-      <c r="G10" s="5">
-        <v>4.2526406871192801</v>
-      </c>
-      <c r="H10" s="4">
-        <v>0.22789519547609599</v>
-      </c>
-      <c r="I10" s="4">
+      <c r="J14" s="2">
         <f t="shared" si="0"/>
         <v>0.12693997061344103</v>
       </c>
-      <c r="J10" s="4">
+      <c r="K14" s="2">
         <v>0.4104469</v>
       </c>
-      <c r="K10" s="4">
+      <c r="L14" s="2">
         <v>0.521742787124719</v>
       </c>
     </row>
@@ -1084,21 +1525,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2544043-A463-F744-B3C1-77BAF0E8A244}">
-  <dimension ref="B2:M10"/>
+  <dimension ref="A2:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:M2"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="9" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1114,26 +1556,26 @@
       <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
       <c r="B3">
         <v>0</v>
       </c>
@@ -1149,27 +1591,27 @@
       <c r="F3">
         <v>0.59082655822707397</v>
       </c>
-      <c r="G3">
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.59082655822707397</v>
+      </c>
+      <c r="K3" s="2">
+        <f>F3-J3</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
         <v>14.659217</v>
       </c>
-      <c r="I3" s="5">
-        <v>0</v>
-      </c>
-      <c r="J3" s="4">
-        <v>0.59082655822707397</v>
-      </c>
-      <c r="K3" s="4">
-        <f>F3-$F$3</f>
-        <v>0</v>
-      </c>
-      <c r="L3" s="4">
-        <v>14.659217</v>
-      </c>
-      <c r="M3" s="2">
+      <c r="M3" s="5">
         <v>1.2880325764220399E-4</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
       <c r="B4">
         <v>1</v>
       </c>
@@ -1180,32 +1622,32 @@
         <v>0.70100119768014502</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F4">
         <v>0.78223880481263297</v>
       </c>
-      <c r="G4">
+      <c r="I4" s="2">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.59082655822707397</v>
+      </c>
+      <c r="K4" s="2">
+        <f t="shared" ref="K4:K14" si="0">F4-J4</f>
+        <v>0.191412246585559</v>
+      </c>
+      <c r="L4" s="2">
         <v>28.422618</v>
       </c>
-      <c r="I4" s="5">
-        <v>1</v>
-      </c>
-      <c r="J4" s="4">
-        <v>0.59082655822707397</v>
-      </c>
-      <c r="K4" s="4">
-        <f t="shared" ref="K4:K10" si="0">F4-$F$3</f>
-        <v>0.191412246585559</v>
-      </c>
-      <c r="L4" s="4">
-        <v>28.422618</v>
-      </c>
-      <c r="M4" s="6">
+      <c r="M4" s="4">
         <v>9.7519308427495603E-8</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
       <c r="B5">
         <v>1.4242135623731</v>
       </c>
@@ -1221,27 +1663,27 @@
       <c r="F5">
         <v>0.68847476527587204</v>
       </c>
-      <c r="G5">
+      <c r="I5" s="2">
+        <v>1.4242135623731</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.59082655822707397</v>
+      </c>
+      <c r="K5" s="2">
+        <f t="shared" si="0"/>
+        <v>9.7648207048798064E-2</v>
+      </c>
+      <c r="L5" s="2">
         <v>14.039679</v>
       </c>
-      <c r="I5" s="5">
-        <v>1.4242135623731</v>
-      </c>
-      <c r="J5" s="4">
-        <v>0.59082655822707397</v>
-      </c>
-      <c r="K5" s="4">
-        <f t="shared" si="0"/>
-        <v>9.7648207048798064E-2</v>
-      </c>
-      <c r="L5" s="4">
-        <v>14.039679</v>
-      </c>
-      <c r="M5" s="2">
+      <c r="M5" s="5">
         <v>1.7899346089850801E-4</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
       <c r="B6">
         <v>2</v>
       </c>
@@ -1252,172 +1694,313 @@
         <v>0.72581317107199705</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F6">
         <v>0.76605612621869101</v>
       </c>
-      <c r="G6">
+      <c r="I6" s="2">
+        <v>2</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.59082655822707397</v>
+      </c>
+      <c r="K6" s="2">
+        <f t="shared" si="0"/>
+        <v>0.17522956799161704</v>
+      </c>
+      <c r="L6" s="2">
         <v>17.141324999999998</v>
       </c>
-      <c r="I6" s="5">
-        <v>2</v>
-      </c>
-      <c r="J6" s="4">
+      <c r="M6" s="4">
+        <v>3.4699060580347997E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>2.24606797749979</v>
+      </c>
+      <c r="C7">
+        <v>0.169485463189676</v>
+      </c>
+      <c r="D7">
+        <v>0.52835366188767596</v>
+      </c>
+      <c r="E7">
+        <v>6.5600859364661201E-3</v>
+      </c>
+      <c r="F7">
+        <v>0.69783912507735102</v>
+      </c>
+      <c r="I7" s="2">
+        <v>2.24606797749979</v>
+      </c>
+      <c r="J7" s="2">
         <v>0.59082655822707397</v>
       </c>
-      <c r="K6" s="4">
-        <f t="shared" si="0"/>
-        <v>0.17522956799161704</v>
-      </c>
-      <c r="L6" s="4">
-        <v>17.141324999999998</v>
-      </c>
-      <c r="M6" s="6">
-        <v>3.4699060580347997E-5</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B7">
+      <c r="K7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.10701256685027705</v>
+      </c>
+      <c r="L7" s="2">
+        <v>7.3896329999999999</v>
+      </c>
+      <c r="M7" s="2">
+        <v>6.5600859364661201E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
         <v>2.8384271247461901</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>0.14186291684406299</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>0.549774425714043</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <v>1.32977204076548E-2</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <v>0.69163734255810505</v>
       </c>
-      <c r="G7">
+      <c r="I8" s="2">
+        <v>2.8384271247461901</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0.59082655822707397</v>
+      </c>
+      <c r="K8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.10081078433103108</v>
+      </c>
+      <c r="L8" s="2">
         <v>6.1290649999999998</v>
       </c>
-      <c r="I7" s="5">
-        <v>2.8384271247461901</v>
-      </c>
-      <c r="J7" s="4">
+      <c r="M8" s="2">
+        <v>1.32977204076548E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>3.0516693598842601E-2</v>
+      </c>
+      <c r="D9">
+        <v>0.69007699695255398</v>
+      </c>
+      <c r="E9">
+        <v>3.5194031257001902E-3</v>
+      </c>
+      <c r="F9">
+        <v>0.72059369055139699</v>
+      </c>
+      <c r="I9" s="2">
+        <v>3</v>
+      </c>
+      <c r="J9" s="2">
         <v>0.59082655822707397</v>
       </c>
-      <c r="K7" s="4">
-        <f t="shared" si="0"/>
-        <v>0.10081078433103108</v>
-      </c>
-      <c r="L7" s="4">
-        <v>6.1290649999999998</v>
-      </c>
-      <c r="M7" s="3">
-        <v>1.32977204076548E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8">
-        <v>3.0516693598842601E-2</v>
-      </c>
-      <c r="D8">
-        <v>0.69007699695255398</v>
-      </c>
-      <c r="E8">
+      <c r="K9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.12976713232432302</v>
+      </c>
+      <c r="L9" s="2">
+        <v>8.5165019999999991</v>
+      </c>
+      <c r="M9" s="2">
         <v>3.5194031257001902E-3</v>
       </c>
-      <c r="F8">
-        <v>0.72059369055139699</v>
-      </c>
-      <c r="G8">
-        <v>8.5165019999999991</v>
-      </c>
-      <c r="I8" s="5">
-        <v>3</v>
-      </c>
-      <c r="J8" s="4">
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>3.1722776601683802</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10">
+        <v>0.722952012184788</v>
+      </c>
+      <c r="E10">
+        <v>6.9920223327325504E-3</v>
+      </c>
+      <c r="F10">
+        <v>0.72295211869000597</v>
+      </c>
+      <c r="I10" s="2">
+        <v>3.1722776601683802</v>
+      </c>
+      <c r="J10" s="2">
         <v>0.59082655822707397</v>
       </c>
-      <c r="K8" s="4">
-        <f t="shared" si="0"/>
-        <v>0.12976713232432302</v>
-      </c>
-      <c r="L8" s="4">
-        <v>8.5165019999999991</v>
-      </c>
-      <c r="M8" s="3">
-        <v>3.5194031257001902E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B9">
+      <c r="K10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.132125560462932</v>
+      </c>
+      <c r="L10" s="2">
+        <v>7.2750170000000001</v>
+      </c>
+      <c r="M10" s="2">
+        <v>6.9920223327325504E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>3.6155512754639898</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11">
+        <v>0.73254658976988696</v>
+      </c>
+      <c r="E11">
+        <v>4.7526293529570798E-3</v>
+      </c>
+      <c r="F11">
+        <v>0.73254669337638101</v>
+      </c>
+      <c r="I11" s="2">
+        <v>3.6155512754639898</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0.59082655822707397</v>
+      </c>
+      <c r="K11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.14172013514930704</v>
+      </c>
+      <c r="L11" s="2">
+        <v>7.9712430000000003</v>
+      </c>
+      <c r="M11" s="2">
+        <v>4.7526293529570798E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
         <v>4</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9">
+      <c r="C12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12">
         <v>0.75211621995081901</v>
       </c>
-      <c r="E9">
+      <c r="E12">
         <v>1.6134845464350501E-3</v>
       </c>
-      <c r="F9">
+      <c r="F12">
         <v>0.75211631824258995</v>
       </c>
-      <c r="G9">
+      <c r="I12" s="2">
+        <v>4</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0.59082655822707397</v>
+      </c>
+      <c r="K12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.16128976001551598</v>
+      </c>
+      <c r="L12" s="2">
         <v>9.9442970000000006</v>
       </c>
-      <c r="I9" s="5">
-        <v>4</v>
-      </c>
-      <c r="J9" s="4">
+      <c r="M12" s="2">
+        <v>1.6134845464350501E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>4.1331056256176604</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13">
+        <v>0.76021611838676695</v>
+      </c>
+      <c r="E13">
+        <v>1.37068741403306E-3</v>
+      </c>
+      <c r="F13">
+        <v>0.76021621420613905</v>
+      </c>
+      <c r="I13" s="2">
+        <v>4.1331056256176604</v>
+      </c>
+      <c r="J13" s="2">
         <v>0.59082655822707397</v>
       </c>
-      <c r="K9" s="4">
-        <f t="shared" si="0"/>
-        <v>0.16128976001551598</v>
-      </c>
-      <c r="L9" s="4">
-        <v>9.9442970000000006</v>
-      </c>
-      <c r="M9" s="3">
-        <v>1.6134845464350501E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B10">
+      <c r="K13" s="2">
+        <f t="shared" si="0"/>
+        <v>0.16938965597906508</v>
+      </c>
+      <c r="L13" s="2">
+        <v>10.244823</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1.37068741403306E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
         <v>4.2526406871192801</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10">
+      <c r="C14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14">
         <v>0.75189986013658305</v>
       </c>
-      <c r="E10">
+      <c r="E14">
         <v>3.60989780845138E-3</v>
       </c>
-      <c r="F10">
+      <c r="F14">
         <v>0.75189995780903396</v>
       </c>
-      <c r="G10">
+      <c r="I14" s="2">
+        <v>4.2526406871192801</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0.59082655822707397</v>
+      </c>
+      <c r="K14" s="2">
+        <f t="shared" si="0"/>
+        <v>0.16107339958195999</v>
+      </c>
+      <c r="L14" s="2">
         <v>8.4703110000000006</v>
       </c>
-      <c r="I10" s="5">
-        <v>4.2526406871192801</v>
-      </c>
-      <c r="J10" s="4">
-        <v>0.59082655822707397</v>
-      </c>
-      <c r="K10" s="4">
-        <f t="shared" si="0"/>
-        <v>0.16107339958195999</v>
-      </c>
-      <c r="L10" s="4">
-        <v>8.4703110000000006</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="M14" s="2">
         <v>3.60989780845138E-3</v>
       </c>
     </row>
@@ -1428,18 +2011,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{438F3934-09F6-FE44-B016-73C90091D8E2}">
-  <dimension ref="B2:L10"/>
+  <dimension ref="A2:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:L10"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="10" max="10" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1449,26 +2033,32 @@
       <c r="D2" t="s">
         <v>2</v>
       </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
       <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="7" t="s">
+      <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="I2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
       <c r="B3">
         <v>0</v>
       </c>
@@ -1478,27 +2068,33 @@
       <c r="D3">
         <v>0</v>
       </c>
+      <c r="E3">
+        <v>2.71980884852332E-2</v>
+      </c>
       <c r="F3">
         <v>0.29614405871372801</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="2">
         <v>0</v>
       </c>
-      <c r="I3" s="4">
-        <v>0.29614405871372801</v>
-      </c>
-      <c r="J3" s="4">
-        <f>F3-$F$3</f>
+      <c r="I3" s="2">
+        <v>0.29614405900000002</v>
+      </c>
+      <c r="J3" s="2">
+        <f>F3-C3</f>
         <v>0</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="2">
         <v>4.8781923000000003</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="2">
         <v>2.71980884852332E-2</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
       <c r="B4">
         <v>1</v>
       </c>
@@ -1508,27 +2104,33 @@
       <c r="D4">
         <v>0.30008017819450999</v>
       </c>
+      <c r="E4">
+        <v>1.6193102395210799E-2</v>
+      </c>
       <c r="F4">
         <v>0.459121814478477</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="2">
         <v>1</v>
       </c>
-      <c r="I4" s="4">
-        <v>0.29614405871372801</v>
-      </c>
-      <c r="J4" s="4">
-        <f t="shared" ref="J4:J10" si="0">F4-$F$3</f>
-        <v>0.16297775576474899</v>
-      </c>
-      <c r="K4" s="4">
+      <c r="I4" s="2">
+        <v>0.29614405900000002</v>
+      </c>
+      <c r="J4" s="2">
+        <f t="shared" ref="J4:J14" si="0">F4-C4</f>
+        <v>0.30008017819450999</v>
+      </c>
+      <c r="K4" s="2">
         <v>5.7817835000000004</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="2">
         <v>1.6193102395210799E-2</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
       <c r="B5">
         <v>1.4242135623731</v>
       </c>
@@ -1538,27 +2140,33 @@
       <c r="D5">
         <v>0.30982193031052002</v>
       </c>
+      <c r="E5">
+        <v>4.61223331696013E-2</v>
+      </c>
       <c r="F5">
         <v>0.45653269368365801</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="2">
         <v>1.4242135623731</v>
       </c>
-      <c r="I5" s="4">
-        <v>0.29614405871372801</v>
-      </c>
-      <c r="J5" s="4">
-        <f t="shared" si="0"/>
-        <v>0.16038863496993</v>
-      </c>
-      <c r="K5" s="4">
+      <c r="I5" s="2">
+        <v>0.29614405900000002</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" si="0"/>
+        <v>0.30982193031052002</v>
+      </c>
+      <c r="K5" s="2">
         <v>3.9771209999999999</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="2">
         <v>4.61223331696013E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
       <c r="B6">
         <v>2</v>
       </c>
@@ -1568,143 +2176,314 @@
       <c r="D6">
         <v>0.43262683310323702</v>
       </c>
+      <c r="E6">
+        <v>6.0203645600704701E-2</v>
+      </c>
       <c r="F6">
         <v>0.50658196865844796</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="2">
         <v>2</v>
       </c>
-      <c r="I6" s="4">
-        <v>0.29614405871372801</v>
-      </c>
-      <c r="J6" s="4">
-        <f t="shared" si="0"/>
-        <v>0.21043790994471995</v>
-      </c>
-      <c r="K6" s="4">
+      <c r="I6" s="2">
+        <v>0.29614405900000002</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" si="0"/>
+        <v>0.43262683310323707</v>
+      </c>
+      <c r="K6" s="2">
         <v>3.5317655999999999</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="2">
         <v>6.0203645600704701E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
       <c r="B7">
+        <v>2.24606797749979</v>
+      </c>
+      <c r="C7">
+        <v>4.6489298819707599E-2</v>
+      </c>
+      <c r="D7">
+        <v>0.45674447639639698</v>
+      </c>
+      <c r="E7">
+        <v>8.2306250419423299E-2</v>
+      </c>
+      <c r="F7">
+        <v>0.50323377521610502</v>
+      </c>
+      <c r="H7" s="2">
+        <v>2.24606797749979</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.29614405900000002</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.45674447639639743</v>
+      </c>
+      <c r="K7" s="2">
+        <v>3.0187624999999998</v>
+      </c>
+      <c r="L7" s="2">
+        <v>8.2306250419423299E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
         <v>2.8384271247461901</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>3.0002640352405501E-2</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>0.48302998098475503</v>
       </c>
-      <c r="F7">
+      <c r="E8">
+        <v>8.6322805861187998E-2</v>
+      </c>
+      <c r="F8">
         <v>0.51303262133715999</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H8" s="2">
         <v>2.8384271247461901</v>
       </c>
-      <c r="I7" s="4">
-        <v>0.29614405871372801</v>
-      </c>
-      <c r="J7" s="4">
-        <f t="shared" si="0"/>
-        <v>0.21688856262343198</v>
-      </c>
-      <c r="K7" s="4">
+      <c r="I8" s="2">
+        <v>0.29614405900000002</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.48302998098475447</v>
+      </c>
+      <c r="K8" s="2">
         <v>2.9416445000000002</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L8" s="2">
         <v>8.6322805861187998E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B8">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
         <v>3</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8">
+      <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9">
         <v>0.51252299590247496</v>
       </c>
-      <c r="F8">
+      <c r="E9">
+        <v>0.123085293262893</v>
+      </c>
+      <c r="F9">
         <v>0.51252324623585499</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H9" s="2">
         <v>3</v>
       </c>
-      <c r="I8" s="4">
-        <v>0.29614405871372801</v>
-      </c>
-      <c r="J8" s="4">
-        <f t="shared" si="0"/>
-        <v>0.21637918752212698</v>
-      </c>
-      <c r="K8" s="4">
+      <c r="I9" s="2">
+        <v>0.29614405900000002</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.51252299590247441</v>
+      </c>
+      <c r="K9" s="2">
         <v>2.3776155000000001</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L9" s="2">
         <v>0.123085293262893</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B9">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>3.1722776601683802</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10">
+        <v>0.49705710340510201</v>
+      </c>
+      <c r="E10">
+        <v>0.122211619063509</v>
+      </c>
+      <c r="F10">
+        <v>0.49705735828486602</v>
+      </c>
+      <c r="H10" s="2">
+        <v>3.1722776601683802</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.29614405900000002</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.49705710340510173</v>
+      </c>
+      <c r="K10" s="2">
+        <v>2.3887461000000001</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0.122211619063509</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>3.6155512754639898</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11">
+        <v>0.50099368502880404</v>
+      </c>
+      <c r="E11">
+        <v>0.12606353747555499</v>
+      </c>
+      <c r="F11">
+        <v>0.500993937708471</v>
+      </c>
+      <c r="H11" s="2">
+        <v>3.6155512754639898</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0.29614405900000002</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.50099368502880337</v>
+      </c>
+      <c r="K11" s="2">
+        <v>2.3403214999999999</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0.12606353747555499</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
         <v>4</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9">
+      <c r="C12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12">
         <v>0.51263103771224405</v>
       </c>
-      <c r="F9">
+      <c r="E12">
+        <v>9.4694205925484304E-2</v>
+      </c>
+      <c r="F12">
         <v>0.51263128537383396</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H12" s="2">
         <v>4</v>
       </c>
-      <c r="I9" s="4">
-        <v>0.29614405871372801</v>
-      </c>
-      <c r="J9" s="4">
-        <f t="shared" si="0"/>
-        <v>0.21648722666010595</v>
-      </c>
-      <c r="K9" s="4">
+      <c r="I12" s="2">
+        <v>0.29614405900000002</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.51263103771224383</v>
+      </c>
+      <c r="K12" s="2">
         <v>2.7927059000000001</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L12" s="2">
         <v>9.4694205925484304E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B10">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>4.1331056256176604</v>
+      </c>
+      <c r="C13">
+        <v>3.8564754293758698E-2</v>
+      </c>
+      <c r="D13">
+        <v>0.42350882562444803</v>
+      </c>
+      <c r="E13">
+        <v>0.29619511377683599</v>
+      </c>
+      <c r="F13">
+        <v>0.46207357991820702</v>
+      </c>
+      <c r="H13" s="2">
+        <v>4.1331056256176604</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0.29614405900000002</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" si="0"/>
+        <v>0.4235088256244483</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1.0912468</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0.29619511377683599</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
         <v>4.2526406871192801</v>
       </c>
-      <c r="C10">
+      <c r="C14">
         <v>0.133638544360837</v>
       </c>
-      <c r="D10">
+      <c r="D14">
         <v>0.26761846574995501</v>
       </c>
-      <c r="F10">
+      <c r="E14">
+        <v>0.52754216978837298</v>
+      </c>
+      <c r="F14">
         <v>0.40125701011079201</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H14" s="2">
         <v>4.2526406871192801</v>
       </c>
-      <c r="I10" s="4">
-        <v>0.29614405871372801</v>
-      </c>
-      <c r="J10" s="4">
-        <f t="shared" si="0"/>
-        <v>0.105112951397064</v>
-      </c>
-      <c r="K10" s="4">
+      <c r="I14" s="2">
+        <v>0.29614405900000002</v>
+      </c>
+      <c r="J14" s="2">
+        <f t="shared" si="0"/>
+        <v>0.26761846574995501</v>
+      </c>
+      <c r="K14" s="2">
         <v>0.39912370000000003</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L14" s="2">
         <v>0.52754216978837298</v>
       </c>
     </row>
@@ -1715,15 +2494,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A155AF8B-430E-A64A-8D0B-B8E2073C4CAA}">
-  <dimension ref="B2:L10"/>
+  <dimension ref="A2:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1733,26 +2515,32 @@
       <c r="D2" t="s">
         <v>2</v>
       </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
       <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="7" t="s">
+      <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="I2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
       <c r="B3">
         <v>0</v>
       </c>
@@ -1762,27 +2550,33 @@
       <c r="D3">
         <v>0</v>
       </c>
+      <c r="E3">
+        <v>0.10700230101443101</v>
+      </c>
       <c r="F3">
         <v>0.16628806427610801</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="2">
         <v>0</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="2">
         <v>0.16628806427610801</v>
       </c>
-      <c r="J3" s="4">
-        <f>F3-$F$3</f>
+      <c r="J3" s="2">
+        <f>F3-I3</f>
         <v>0</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="2">
         <v>2.5979461399999999</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="2">
         <v>0.10700230101443101</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
       <c r="B4">
         <v>1</v>
       </c>
@@ -1792,27 +2586,33 @@
       <c r="D4">
         <v>0.204808176894276</v>
       </c>
+      <c r="E4">
+        <v>0.117632681407358</v>
+      </c>
       <c r="F4">
         <v>0.31162465347135498</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="2">
         <v>1</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="2">
         <v>0.16628806427610801</v>
       </c>
-      <c r="J4" s="4">
-        <f t="shared" ref="J4:J10" si="0">F4-$F$3</f>
+      <c r="J4" s="2">
+        <f t="shared" ref="J4:J14" si="0">F4-I4</f>
         <v>0.14533658919524697</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="2">
         <v>2.44856075</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="2">
         <v>0.117632681407358</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
       <c r="B5">
         <v>1.4242135623731</v>
       </c>
@@ -1822,173 +2622,350 @@
       <c r="D5">
         <v>0.30597376094120698</v>
       </c>
+      <c r="E5">
+        <v>4.2454579258908602E-2</v>
+      </c>
       <c r="F5">
         <v>0.37376404096083898</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="2">
         <v>1.4242135623731</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="2">
         <v>0.16628806427610801</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="2">
         <f t="shared" si="0"/>
         <v>0.20747597668473097</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="2">
         <v>4.1169888600000002</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="2">
         <v>4.2454579258908602E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D6">
         <v>0.47911981127096098</v>
       </c>
+      <c r="E6">
+        <v>1.6248498118806999E-2</v>
+      </c>
       <c r="F6">
         <v>0.47912038470441798</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="2">
         <v>2</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="2">
         <v>0.16628806427610801</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="2">
         <f t="shared" si="0"/>
         <v>0.31283232042831</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="2">
         <v>5.7757810000000003</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="2">
         <v>1.6248498118806999E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
       <c r="B7">
+        <v>2.24606797749979</v>
+      </c>
+      <c r="C7">
+        <v>3.0410660786247001E-2</v>
+      </c>
+      <c r="D7">
+        <v>0.367225671275341</v>
+      </c>
+      <c r="E7">
+        <v>0.13577343107922399</v>
+      </c>
+      <c r="F7">
+        <v>0.39763633206158799</v>
+      </c>
+      <c r="H7" s="2">
+        <v>2.24606797749979</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.16628806427610801</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.23134826778547998</v>
+      </c>
+      <c r="K7" s="2">
+        <v>2.2252186900000002</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0.13577343107922399</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
         <v>2.8384271247461901</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>6.5647363840572502E-3</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>0.37210234219841998</v>
       </c>
-      <c r="F7">
+      <c r="E8">
+        <v>0.17026862265210699</v>
+      </c>
+      <c r="F8">
         <v>0.378667078582477</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H8" s="2">
         <v>2.8384271247461901</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I8" s="2">
         <v>0.16628806427610801</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J8" s="2">
         <f t="shared" si="0"/>
         <v>0.21237901430636899</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K8" s="2">
         <v>1.8805766500000001</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L8" s="2">
         <v>0.17026862265210699</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B8">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
         <v>3</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8">
+      <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9">
         <v>0.39373773975341397</v>
       </c>
-      <c r="F8">
+      <c r="E9">
+        <v>0.22884834925101299</v>
+      </c>
+      <c r="F9">
         <v>0.39373836344553997</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H9" s="2">
         <v>3</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I9" s="2">
         <v>0.16628806427610801</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J9" s="2">
         <f t="shared" si="0"/>
         <v>0.22745029916943196</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K9" s="2">
         <v>1.44800492</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L9" s="2">
         <v>0.22884834925101299</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B9">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>3.1722776601683802</v>
+      </c>
+      <c r="C10">
+        <v>1.9382588793576901E-2</v>
+      </c>
+      <c r="D10">
+        <v>0.29047270973195699</v>
+      </c>
+      <c r="E10">
+        <v>0.45775550289374001</v>
+      </c>
+      <c r="F10">
+        <v>0.30985529852553401</v>
+      </c>
+      <c r="H10" s="2">
+        <v>3.1722776601683802</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.16628806427610801</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.143567234249426</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0.55137723000000005</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0.45775550289374001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>3.6155512754639898</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11">
+        <v>0.30336693360317701</v>
+      </c>
+      <c r="E11">
+        <v>0.46918899722705798</v>
+      </c>
+      <c r="F11">
+        <v>0.30336762490355901</v>
+      </c>
+      <c r="H11" s="2">
+        <v>3.6155512754639898</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0.16628806427610801</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.137079560627451</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0.52388533999999998</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0.46918899722705798</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
         <v>4</v>
       </c>
-      <c r="C9">
+      <c r="C12">
         <v>5.9614132658711697E-2</v>
       </c>
-      <c r="D9">
+      <c r="D12">
         <v>0.20004543628049601</v>
       </c>
-      <c r="F9">
+      <c r="E12">
+        <v>0.698532251169663</v>
+      </c>
+      <c r="F12">
         <v>0.259659568939208</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H12" s="2">
         <v>4</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I12" s="2">
         <v>0.16628806427610801</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J12" s="2">
         <f t="shared" si="0"/>
         <v>9.3371504663099986E-2</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K12" s="2">
         <v>0.15000325</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L12" s="2">
         <v>0.698532251169663</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B10">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>4.1331056256176604</v>
+      </c>
+      <c r="C13">
+        <v>7.5553996801076995E-2</v>
+      </c>
+      <c r="D13">
+        <v>0.17022576321845401</v>
+      </c>
+      <c r="E13">
+        <v>0.76249588639621002</v>
+      </c>
+      <c r="F13">
+        <v>0.245779760019531</v>
+      </c>
+      <c r="H13" s="2">
+        <v>4.1331056256176604</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0.16628806427610801</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" si="0"/>
+        <v>7.9491695743422991E-2</v>
+      </c>
+      <c r="K13" s="2">
+        <v>9.1327790000000006E-2</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0.76249588639621002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
         <v>4.2526406871192801</v>
       </c>
-      <c r="C10">
+      <c r="C14">
         <v>9.2705735939756298E-2</v>
       </c>
-      <c r="D10">
+      <c r="D14">
         <v>0.13318759614166401</v>
       </c>
-      <c r="F10">
+      <c r="E14">
+        <v>0.83297627679978103</v>
+      </c>
+      <c r="F14">
         <v>0.22589333208142001</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H14" s="2">
         <v>4.2526406871192801</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I14" s="2">
         <v>0.16628806427610801</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J14" s="2">
         <f t="shared" si="0"/>
         <v>5.9605267805312001E-2</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K14" s="2">
         <v>4.4472879999999999E-2</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L14" s="2">
         <v>0.83297627679978103</v>
       </c>
     </row>
@@ -1999,18 +2976,19 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D1F0FD1-D7D4-2D43-9349-6301CED29369}">
-  <dimension ref="B2:M10"/>
+  <dimension ref="A2:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -2020,26 +2998,32 @@
       <c r="D2" t="s">
         <v>2</v>
       </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
       <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="7" t="s">
+      <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="J2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
       <c r="B3">
         <v>0</v>
       </c>
@@ -2049,27 +3033,33 @@
       <c r="D3">
         <v>0</v>
       </c>
+      <c r="E3">
+        <v>1.56491192174828E-4</v>
+      </c>
       <c r="F3">
         <v>0.51104448202892905</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="2">
         <v>0</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="2">
         <v>0.51104448202892905</v>
       </c>
-      <c r="K3" s="4">
-        <f>F3-$F$3</f>
+      <c r="K3" s="2">
+        <f>F3-J3</f>
         <v>0</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="2">
         <v>14.292451</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="5">
         <v>1.56491192174828E-4</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
       <c r="B4">
         <v>1</v>
       </c>
@@ -2079,27 +3069,33 @@
       <c r="D4">
         <v>0.66595629460570704</v>
       </c>
+      <c r="E4" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="F4">
         <v>0.73534288248378499</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="2">
         <v>1</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="2">
         <v>0.51104448202892905</v>
       </c>
-      <c r="K4" s="4">
-        <f t="shared" ref="K4:K10" si="0">F4-$F$3</f>
+      <c r="K4" s="2">
+        <f t="shared" ref="K4:K14" si="0">F4-J4</f>
         <v>0.22429840045485594</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="2">
         <v>27.381891</v>
       </c>
       <c r="M4" s="6">
         <v>1.66987695563099E-7</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
       <c r="B5">
         <v>1.4242135623731</v>
       </c>
@@ -2109,27 +3105,33 @@
       <c r="D5">
         <v>0.52272970420561105</v>
       </c>
+      <c r="E5">
+        <v>2.5234029735552598E-4</v>
+      </c>
       <c r="F5">
         <v>0.62910630321193795</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="2">
         <v>1.4242135623731</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="2">
         <v>0.51104448202892905</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="2">
         <f t="shared" si="0"/>
         <v>0.1180618211830089</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="2">
         <v>13.39467</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="5">
         <v>2.5234029735552598E-4</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
       <c r="B6">
         <v>2</v>
       </c>
@@ -2139,147 +3141,569 @@
       <c r="D6">
         <v>0.66377469377576603</v>
       </c>
+      <c r="E6" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="F6">
         <v>0.71122461229213896</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="2">
         <v>2</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="2">
         <v>0.51104448202892905</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="2">
         <f t="shared" si="0"/>
         <v>0.20018013026320991</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="2">
         <v>15.411272</v>
       </c>
       <c r="M6" s="6">
         <v>8.6470934983732097E-5</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
       <c r="B7">
+        <v>2.24606797749979</v>
+      </c>
+      <c r="C7">
+        <v>0.15344070514817701</v>
+      </c>
+      <c r="D7">
+        <v>0.48588853427309803</v>
+      </c>
+      <c r="E7">
+        <v>7.9555918339989894E-3</v>
+      </c>
+      <c r="F7">
+        <v>0.63932923942127495</v>
+      </c>
+      <c r="I7" s="2">
+        <v>2.24606797749979</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.51104448202892905</v>
+      </c>
+      <c r="K7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.12828475739234591</v>
+      </c>
+      <c r="L7" s="2">
+        <v>7.043444</v>
+      </c>
+      <c r="M7" s="2">
+        <v>7.9555918339989894E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
         <v>2.8384271247461901</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>0.12401973473264701</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>0.51120656891109395</v>
       </c>
-      <c r="F7">
+      <c r="E8">
+        <v>1.4653837649836301E-2</v>
+      </c>
+      <c r="F8">
         <v>0.63522630364374</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I8" s="2">
         <v>2.8384271247461901</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J8" s="2">
         <v>0.51104448202892905</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K8" s="2">
         <f t="shared" si="0"/>
         <v>0.12418182161481095</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L8" s="2">
         <v>5.9576169999999999</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M8" s="2">
         <v>1.4653837649836301E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B8">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
         <v>3</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>3.2791469626050097E-2</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>0.63587288255777197</v>
       </c>
-      <c r="F8">
+      <c r="E9">
+        <v>4.3447766488152904E-3</v>
+      </c>
+      <c r="F9">
         <v>0.66866435218382203</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I9" s="2">
         <v>3</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J9" s="2">
         <v>0.51104448202892905</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K9" s="2">
         <f t="shared" si="0"/>
         <v>0.15761987015489298</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L9" s="2">
         <v>8.1337930000000007</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M9" s="2">
         <v>4.3447766488152904E-3</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B9">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>3.1722776601683802</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10">
+        <v>0.67015673148889598</v>
+      </c>
+      <c r="E10">
+        <v>9.1962109194917898E-3</v>
+      </c>
+      <c r="F10">
+        <v>0.67015685581025797</v>
+      </c>
+      <c r="I10" s="2">
+        <v>3.1722776601683802</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0.51104448202892905</v>
+      </c>
+      <c r="K10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.15911237378132892</v>
+      </c>
+      <c r="L10" s="2">
+        <v>6.784319</v>
+      </c>
+      <c r="M10" s="2">
+        <v>9.1962109194917898E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>3.6155512754639898</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11">
+        <v>0.68191689481950002</v>
+      </c>
+      <c r="E11">
+        <v>6.5557015112406398E-3</v>
+      </c>
+      <c r="F11">
+        <v>0.68191701560297002</v>
+      </c>
+      <c r="I11" s="2">
+        <v>3.6155512754639898</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0.51104448202892905</v>
+      </c>
+      <c r="K11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.17087253357404097</v>
+      </c>
+      <c r="L11" s="2">
+        <v>7.3908360000000002</v>
+      </c>
+      <c r="M11" s="2">
+        <v>6.5557015112406398E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
         <v>4</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9">
+      <c r="C12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12">
         <v>0.70453133702982795</v>
       </c>
-      <c r="F9">
+      <c r="E12">
+        <v>2.2736559768450101E-3</v>
+      </c>
+      <c r="F12">
         <v>0.70453145178594201</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I12" s="2">
         <v>4</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J12" s="2">
         <v>0.51104448202892905</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K12" s="2">
         <f t="shared" si="0"/>
         <v>0.19348696975701296</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L12" s="2">
         <v>9.3143530000000005</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M12" s="2">
         <v>2.2736559768450101E-3</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B10">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>4.1331056256176604</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13">
+        <v>0.71302336705160896</v>
+      </c>
+      <c r="E13">
+        <v>1.94721124202087E-3</v>
+      </c>
+      <c r="F13">
+        <v>0.71302347920277798</v>
+      </c>
+      <c r="I13" s="2">
+        <v>4.1331056256176604</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0.51104448202892905</v>
+      </c>
+      <c r="K13" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20197899717384893</v>
+      </c>
+      <c r="L13" s="2">
+        <v>9.5986440000000002</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1.94721124202087E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
         <v>4.2526406871192801</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10">
+      <c r="C14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14">
         <v>0.70365576786074302</v>
       </c>
-      <c r="F10">
+      <c r="E14">
+        <v>4.9905683034698802E-3</v>
+      </c>
+      <c r="F14">
         <v>0.70365588201160301</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I14" s="2">
         <v>4.2526406871192801</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J14" s="2">
         <v>0.51104448202892905</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K14" s="2">
         <f t="shared" si="0"/>
         <v>0.19261139998267396</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L14" s="2">
         <v>7.8828529999999999</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M14" s="2">
         <v>4.9905683034698802E-3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40FB4BF8-009E-B84F-8B26-5578201A945C}">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>2.8</v>
+      </c>
+      <c r="D4">
+        <v>3.1</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>1.4242135623731</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D5">
+        <v>5.6</v>
+      </c>
+      <c r="E5">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>7.3</v>
+      </c>
+      <c r="D6">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>2.24606797749979</v>
+      </c>
+      <c r="B7">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <v>12.8</v>
+      </c>
+      <c r="E7">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>2.8384271247461901</v>
+      </c>
+      <c r="B8">
+        <v>24</v>
+      </c>
+      <c r="C8">
+        <v>12.7</v>
+      </c>
+      <c r="D8">
+        <v>14.8</v>
+      </c>
+      <c r="E8">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>28</v>
+      </c>
+      <c r="C9">
+        <v>14.9</v>
+      </c>
+      <c r="D9">
+        <v>17.3</v>
+      </c>
+      <c r="E9">
+        <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>3.1722776601683802</v>
+      </c>
+      <c r="B10">
+        <v>36</v>
+      </c>
+      <c r="C10">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="D10">
+        <v>21.4</v>
+      </c>
+      <c r="E10">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>3.6155512754639898</v>
+      </c>
+      <c r="B11">
+        <v>44</v>
+      </c>
+      <c r="C11">
+        <v>21.5</v>
+      </c>
+      <c r="D11">
+        <v>25.1</v>
+      </c>
+      <c r="E11">
+        <v>23.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>48</v>
+      </c>
+      <c r="C12">
+        <v>23.8</v>
+      </c>
+      <c r="D12">
+        <v>27.2</v>
+      </c>
+      <c r="E12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>4.1331056256176604</v>
+      </c>
+      <c r="B13">
+        <v>56</v>
+      </c>
+      <c r="C13">
+        <v>27.4</v>
+      </c>
+      <c r="D13">
+        <v>30.8</v>
+      </c>
+      <c r="E13">
+        <v>29.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>4.2526406871192801</v>
+      </c>
+      <c r="B14">
+        <v>60</v>
+      </c>
+      <c r="C14">
+        <v>28.8</v>
+      </c>
+      <c r="D14">
+        <v>32.5</v>
+      </c>
+      <c r="E14">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>